--- a/generatedProject/Sajed BOUFARES.xlsx
+++ b/generatedProject/Sajed BOUFARES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboufares\Desktop\Nouveau dossier\suiviProjetG\generatedProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0B54EE-DD99-40C5-B854-87D9D4CFDB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D423DB-4645-409C-9267-5FBA87F40FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5EB02635-4332-49D2-9F1E-65F002542355}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9060" xr2:uid="{05CD03E8-08F6-4C08-B0C9-6F5B0BF42C18}"/>
   </bookViews>
   <sheets>
     <sheet name="S01" sheetId="1" r:id="rId1"/>
@@ -1398,7 +1398,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338909ED-9B86-492C-A67A-2D50D406DB0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303C8F97-12D2-483A-AB77-C706D7A38640}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1458,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005D561B-5E03-4348-94EA-0984503E90BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A456621-084B-49AC-B360-19ECF3C6C2F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1518,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0928FE2-FD66-4050-9F22-31F591244AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E341CE-417F-4BC5-BA91-FE7655F637AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1578,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD1FF87-4307-4A30-87E9-01F5E69DA43A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883F0986-070E-4CEC-87A0-221781C074D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3953B84-F478-49E3-B57D-624B3B0BB8A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB0A563-26A4-4032-AE79-16650578AEDD}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:U35"/>
   <sheetViews>
@@ -3518,25 +3518,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9370D054-9A0B-4633-9CCA-1A7F6C82102E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8EB8C0D5-2399-4908-B21C-B53C3FFDF100}">
           <x14:formula1>
             <xm:f>BDD!$C$20:$C$33</xm:f>
           </x14:formula1>
           <xm:sqref>E11:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A86639C8-A49F-4540-BC37-320945200075}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5235B131-AFF0-428A-88D8-CE5477F90781}">
           <x14:formula1>
             <xm:f>BDD!$E$3:$E$33</xm:f>
           </x14:formula1>
           <xm:sqref>D11:D33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD6BD5FF-1E8D-4A58-B193-52E02112C504}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{688E3574-05A3-4C3D-899E-B707FA38E53B}">
           <x14:formula1>
             <xm:f>BDD!$C$3:$C$13</xm:f>
           </x14:formula1>
           <xm:sqref>C11:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDF64CA6-FF14-406E-A9D4-0A2DDA3B26C2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E25BAEA-51AE-43E4-91ED-3454ACF7B2CA}">
           <x14:formula1>
             <xm:f>BDD!$A$3:$A$13</xm:f>
           </x14:formula1>
@@ -3549,7 +3549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847D8740-F152-4372-B520-6127BD11AC2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0CC44C-85F3-4C81-B133-5E52CE4ACA4E}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:U35"/>
   <sheetViews>
@@ -4740,25 +4740,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{607619D5-5090-4894-AF5E-A37F1CA625E9}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0ADA7577-A57E-4B77-B50E-C149BD08E491}">
           <x14:formula1>
             <xm:f>BDD!$A$3:$A$13</xm:f>
           </x14:formula1>
           <xm:sqref>B11:B33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C836F6DD-1CD2-4CBD-BEC1-F614DB14CF5E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{200A41CE-9003-482E-A9EF-04F0346C17CB}">
           <x14:formula1>
             <xm:f>BDD!$C$3:$C$13</xm:f>
           </x14:formula1>
           <xm:sqref>C11:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{428A32CE-686D-47D6-85A9-589A713D9BBE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5F3EE74-3277-4420-BABD-B620660EC45B}">
           <x14:formula1>
             <xm:f>BDD!$E$3:$E$33</xm:f>
           </x14:formula1>
           <xm:sqref>D11:D33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2723D8CD-77C5-4870-B614-2B492078D375}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29E2C7A1-393E-4FA6-B66D-45B00A8C9F65}">
           <x14:formula1>
             <xm:f>BDD!$C$20:$C$33</xm:f>
           </x14:formula1>
@@ -4771,7 +4771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B823BBD2-4E66-41C9-BAB5-B2A4B566FEC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDF2EE1-972A-4413-A8DB-EA01DADA559F}">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:U35"/>
   <sheetViews>
@@ -5962,25 +5962,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B35F95A9-D1A2-4777-AAE9-611501558C63}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D746680F-27BD-4BA0-9D28-6C5547615926}">
           <x14:formula1>
             <xm:f>BDD!$A$3:$A$13</xm:f>
           </x14:formula1>
           <xm:sqref>B11:B33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7C594A49-551B-4480-9DFF-F046CAF29434}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D1A7BB35-6BCD-421C-A349-BC6F8DF41A0E}">
           <x14:formula1>
             <xm:f>BDD!$C$3:$C$13</xm:f>
           </x14:formula1>
           <xm:sqref>C11:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{95EE466D-8702-4A3C-9E60-6D3EDE73990B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{293ACC65-E37B-41F1-A49A-64D665F04C39}">
           <x14:formula1>
             <xm:f>BDD!$E$3:$E$33</xm:f>
           </x14:formula1>
           <xm:sqref>D11:D33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AAC1B29-257F-4612-BA22-C3BC2D56DEC7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8082ACFA-DC81-4798-87EA-859002382127}">
           <x14:formula1>
             <xm:f>BDD!$C$20:$C$33</xm:f>
           </x14:formula1>
@@ -5993,7 +5993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444CBAB9-60E5-4B93-8EBA-3AE7BA8F528A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88B57C8-66FB-409C-99E1-420EAF089F14}">
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:U35"/>
   <sheetViews>
@@ -7184,25 +7184,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{615154D9-C4E6-4FA9-B18A-B5FA7AB76603}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD1FAC5B-AEF5-4C8E-A511-878A9D51CFAB}">
           <x14:formula1>
             <xm:f>BDD!$C$20:$C$33</xm:f>
           </x14:formula1>
           <xm:sqref>E11:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{37A3871A-F8F0-4183-B176-F234A0150BDB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B4BE5F0-9000-4771-8413-4D2F6A5AED5B}">
           <x14:formula1>
             <xm:f>BDD!$E$3:$E$33</xm:f>
           </x14:formula1>
           <xm:sqref>D11:D33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C4F3D19-112D-438A-A15F-5965C9332C0F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04EEA6B7-9CB6-42A5-A217-B83C31748AA4}">
           <x14:formula1>
             <xm:f>BDD!$C$3:$C$13</xm:f>
           </x14:formula1>
           <xm:sqref>C11:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{68D03A41-97B8-42E1-A66B-8648FB675775}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8845A606-B9B7-4B9D-803E-7373315074A4}">
           <x14:formula1>
             <xm:f>BDD!$A$3:$A$13</xm:f>
           </x14:formula1>
@@ -7215,7 +7215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20FC686-0A40-4F39-A34F-FCA705F9E45F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BAE567-2951-4BED-96DF-971FAF95DC90}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:H57"/>
   <sheetViews>
